--- a/examples/pdfDownloadCompare.xlsx
+++ b/examples/pdfDownloadCompare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F68FB-6A8B-2C4D-BD43-51EA1D816C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24DE3A-7F45-C54B-8DBF-25B7999305BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="34600" windowHeight="15580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="34600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Activity</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve"> '1MB.pdf'</t>
+  </si>
+  <si>
+    <t>checkLinks</t>
   </si>
 </sst>
 </file>
@@ -197,8 +200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{204AEBD8-FB75-1940-BD5B-BEB77C95C906}" name="Tabelle1" displayName="Tabelle1" ref="A1:I4" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I4" xr:uid="{785075D4-54D6-3C41-81C4-1E0DDD8F532E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{204AEBD8-FB75-1940-BD5B-BEB77C95C906}" name="Tabelle1" displayName="Tabelle1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I5" xr:uid="{785075D4-54D6-3C41-81C4-1E0DDD8F532E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2CAEB1B0-3AE0-5C4E-96E3-EA9525E8AF80}" name="Activity"/>
     <tableColumn id="2" xr3:uid="{DA1FA16C-0606-F94E-A8F4-A317FCFB6375}" name="LocatorType"/>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -608,6 +611,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -620,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/examples/pdfDownloadCompare.xlsx
+++ b/examples/pdfDownloadCompare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24DE3A-7F45-C54B-8DBF-25B7999305BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3299575-216D-6D47-B0F8-F9632CF52FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="34600" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="34600" windowHeight="15580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Activity</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>checkLinks</t>
+  </si>
+  <si>
+    <t>209646778904846477838127263560568410402</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212529"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -150,12 +159,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -540,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -628,13 +639,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,24 +654,24 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>12346</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
